--- a/doc/Match_rules.xlsx
+++ b/doc/Match_rules.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Make
 Game</t>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>Uitgespeeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Niet unregistreren</t>
   </si>
   <si>
     <t xml:space="preserve">Registration
@@ -1102,18 +1108,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" ht="14.25">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="12" ht="28.5">
       <c r="L12" s="11"/>
       <c r="M12" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="L13" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>6</v>
@@ -1124,21 +1140,21 @@
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="L14" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="L15" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>12</v>
